--- a/Code/Results/Cases/Case_4_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.04762314167126</v>
+        <v>21.70413948077697</v>
       </c>
       <c r="C2">
-        <v>15.14270795352359</v>
+        <v>8.942990563587324</v>
       </c>
       <c r="D2">
-        <v>7.202575770821612</v>
+        <v>6.010979469025904</v>
       </c>
       <c r="E2">
-        <v>6.109053255730534</v>
+        <v>10.33024867335824</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.99756559509293</v>
+        <v>49.4585704163182</v>
       </c>
       <c r="H2">
-        <v>14.54419411404417</v>
+        <v>18.84614408008562</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.553638294300025</v>
+        <v>10.21525176535112</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.29593120517438</v>
+        <v>19.01868609629499</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.12340403105225</v>
+        <v>21.19981760106075</v>
       </c>
       <c r="C3">
-        <v>14.15737131078209</v>
+        <v>8.451239213540052</v>
       </c>
       <c r="D3">
-        <v>6.68429396461552</v>
+        <v>5.898105816394818</v>
       </c>
       <c r="E3">
-        <v>6.14660109340165</v>
+        <v>10.35533621503886</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.25766734385235</v>
+        <v>48.93872331405137</v>
       </c>
       <c r="H3">
-        <v>14.11790255064791</v>
+        <v>18.83083664099944</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.278369884525347</v>
+        <v>10.19624004958483</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.57591212497635</v>
+        <v>19.09193985957641</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.93063971338798</v>
+        <v>20.89057683872107</v>
       </c>
       <c r="C4">
-        <v>13.5236189878079</v>
+        <v>8.132762874485469</v>
       </c>
       <c r="D4">
-        <v>6.350508047201217</v>
+        <v>5.829692564669692</v>
       </c>
       <c r="E4">
-        <v>6.172168444932001</v>
+        <v>10.371850108656</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.56992965337291</v>
+        <v>48.63482696125696</v>
       </c>
       <c r="H4">
-        <v>13.86669356710035</v>
+        <v>18.82624201564692</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.110367581902362</v>
+        <v>10.18671794623453</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.75074816565719</v>
+        <v>19.13891830692182</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.45068258230571</v>
+        <v>20.76486293406493</v>
       </c>
       <c r="C5">
-        <v>13.25805200709035</v>
+        <v>7.998870930166772</v>
       </c>
       <c r="D5">
-        <v>6.215820772804554</v>
+        <v>5.802078355662226</v>
       </c>
       <c r="E5">
-        <v>6.183200817769298</v>
+        <v>10.3788590910741</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.88136110583776</v>
+        <v>48.51495817835218</v>
       </c>
       <c r="H5">
-        <v>13.76696017148597</v>
+        <v>18.825575891681</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.042222719996101</v>
+        <v>10.18338057971497</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.82276957604073</v>
+        <v>19.15856669350289</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.37030290015026</v>
+        <v>20.74401254690908</v>
       </c>
       <c r="C6">
-        <v>13.21351157744168</v>
+        <v>7.976391680080673</v>
       </c>
       <c r="D6">
-        <v>6.195973092930989</v>
+        <v>5.797510209459879</v>
       </c>
       <c r="E6">
-        <v>6.185069278025524</v>
+        <v>10.38003981369918</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.76699604877764</v>
+        <v>48.49529741344617</v>
       </c>
       <c r="H6">
-        <v>13.75055839833197</v>
+        <v>18.82553806395159</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.030928489362545</v>
+        <v>10.18285925735103</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.83477655153689</v>
+        <v>19.16185978878325</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.92421273557787</v>
+        <v>20.88887991761187</v>
       </c>
       <c r="C7">
-        <v>13.52006713516075</v>
+        <v>8.130973730199505</v>
       </c>
       <c r="D7">
-        <v>6.348636096906956</v>
+        <v>5.829319024328815</v>
       </c>
       <c r="E7">
-        <v>6.172314770640448</v>
+        <v>10.37194350239906</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.56064575813375</v>
+        <v>48.63319412969016</v>
       </c>
       <c r="H7">
-        <v>13.86533786888651</v>
+        <v>18.82622815135569</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.109447181935302</v>
+        <v>10.1866707365286</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.75171628616884</v>
+        <v>19.13918124846413</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.39588649906643</v>
+        <v>21.53028143070796</v>
       </c>
       <c r="C8">
-        <v>14.80887767786268</v>
+        <v>8.776893045192827</v>
       </c>
       <c r="D8">
-        <v>7.027055010863174</v>
+        <v>5.971899903492547</v>
       </c>
       <c r="E8">
-        <v>6.121466645500592</v>
+        <v>10.33866865300502</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>51.05426066420333</v>
+        <v>49.27623201435844</v>
       </c>
       <c r="H8">
-        <v>14.39501292691993</v>
+        <v>18.8398681219857</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.458549887525797</v>
+        <v>10.20825140373828</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.3918845214785</v>
+        <v>19.04352960101993</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.8900855839192</v>
+        <v>22.78288537457854</v>
       </c>
       <c r="C9">
-        <v>17.11276445228069</v>
+        <v>9.910715341230295</v>
       </c>
       <c r="D9">
-        <v>8.23762551539631</v>
+        <v>6.256801044148781</v>
       </c>
       <c r="E9">
-        <v>6.04260826785004</v>
+        <v>10.28221078205235</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>57.84679527004774</v>
+        <v>50.65255694349319</v>
       </c>
       <c r="H9">
-        <v>15.5183144901161</v>
+        <v>18.90477979724658</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.149009179762338</v>
+        <v>10.267531765165</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.70772251976197</v>
+        <v>18.87176858742344</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.93729778851046</v>
+        <v>23.6892211973355</v>
       </c>
       <c r="C10">
-        <v>18.6773621151884</v>
+        <v>10.66124505360214</v>
       </c>
       <c r="D10">
-        <v>9.059576475104604</v>
+        <v>6.467014322534332</v>
       </c>
       <c r="E10">
-        <v>5.998809959578107</v>
+        <v>10.24607364442369</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>62.79557874488225</v>
+        <v>51.72545965843448</v>
       </c>
       <c r="H10">
-        <v>16.39776477885064</v>
+        <v>18.97574275818932</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.65796770569848</v>
+        <v>10.3212541368396</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.21575532161054</v>
+        <v>18.75512849128397</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.27256717473959</v>
+        <v>24.09641265778603</v>
       </c>
       <c r="C11">
-        <v>19.36362450499576</v>
+        <v>10.98458586009791</v>
       </c>
       <c r="D11">
-        <v>9.420263744439863</v>
+        <v>6.562366549564433</v>
       </c>
       <c r="E11">
-        <v>5.982321575737664</v>
+        <v>10.23079017531595</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>65.04087278020377</v>
+        <v>52.22500343938806</v>
       </c>
       <c r="H11">
-        <v>16.81063989164461</v>
+        <v>19.01306098785128</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.889794719037317</v>
+        <v>10.3478565845428</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.99378557912099</v>
+        <v>18.70412186600608</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.77130140696711</v>
+        <v>24.24971142741044</v>
       </c>
       <c r="C12">
-        <v>19.62005967122719</v>
+        <v>11.10441768893834</v>
       </c>
       <c r="D12">
-        <v>9.555078774028242</v>
+        <v>6.598396939674153</v>
       </c>
       <c r="E12">
-        <v>5.976607264243528</v>
+        <v>10.22516861074876</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>65.89079713980031</v>
+        <v>52.41564921077446</v>
       </c>
       <c r="H12">
-        <v>16.9689546883189</v>
+        <v>19.02791350800817</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.977642285926622</v>
+        <v>10.35823684015091</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.90996115805715</v>
+        <v>18.68510098214932</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.66418973118763</v>
+        <v>24.21673808771013</v>
       </c>
       <c r="C13">
-        <v>19.56498064869756</v>
+        <v>11.07872598057467</v>
       </c>
       <c r="D13">
-        <v>9.526120356693815</v>
+        <v>6.590641178487046</v>
       </c>
       <c r="E13">
-        <v>5.977813781399473</v>
+        <v>10.2263719376311</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>65.70775382924658</v>
+        <v>52.37452717118297</v>
       </c>
       <c r="H13">
-        <v>16.93476877325827</v>
+        <v>19.0246827529416</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.958719595642698</v>
+        <v>10.35598771415822</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.92800442551253</v>
+        <v>18.68918440128353</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.31373406401335</v>
+        <v>24.10904347828717</v>
       </c>
       <c r="C14">
-        <v>19.38478904371969</v>
+        <v>10.99449685756336</v>
       </c>
       <c r="D14">
-        <v>9.431389703536453</v>
+        <v>6.565332553936493</v>
       </c>
       <c r="E14">
-        <v>5.981840625089252</v>
+        <v>10.230324361011</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>65.11079905075533</v>
+        <v>52.24065931611366</v>
       </c>
       <c r="H14">
-        <v>16.82362423077949</v>
+        <v>19.01426848811511</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.897020624696083</v>
+        <v>10.34870446022841</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.98688483030223</v>
+        <v>18.70255111597289</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.09818435991516</v>
+        <v>24.04295615809648</v>
       </c>
       <c r="C15">
-        <v>19.27397616956666</v>
+        <v>10.94256390319393</v>
       </c>
       <c r="D15">
-        <v>9.373138216710013</v>
+        <v>6.549819112788942</v>
       </c>
       <c r="E15">
-        <v>5.984377266203507</v>
+        <v>10.23276694052599</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>64.74512536319537</v>
+        <v>52.15884895448009</v>
       </c>
       <c r="H15">
-        <v>16.75580573723753</v>
+        <v>19.00798321833116</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.859236849266829</v>
+        <v>10.34428302460916</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.02297997989567</v>
+        <v>18.71077689894366</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.84904453200029</v>
+        <v>23.66249346656945</v>
       </c>
       <c r="C16">
-        <v>18.63201906749145</v>
+        <v>10.639749176038</v>
       </c>
       <c r="D16">
-        <v>9.035749552476492</v>
+        <v>6.460774018835039</v>
       </c>
       <c r="E16">
-        <v>5.999959577240674</v>
+        <v>10.24709568888182</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>62.64876421941332</v>
+        <v>51.69302965320028</v>
       </c>
       <c r="H16">
-        <v>16.37105000557072</v>
+        <v>18.97340501151761</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.642824245402394</v>
+        <v>10.31955875669456</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23029546299358</v>
+        <v>18.75850312395312</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.06997429977747</v>
+        <v>23.4276657122423</v>
       </c>
       <c r="C17">
-        <v>18.23182301099161</v>
+        <v>10.44934280749293</v>
       </c>
       <c r="D17">
-        <v>8.825474797746562</v>
+        <v>6.40604981690818</v>
       </c>
       <c r="E17">
-        <v>6.010422622351511</v>
+        <v>10.25618171366792</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>61.36149910111119</v>
+        <v>51.41008279786979</v>
       </c>
       <c r="H17">
-        <v>16.13837249117244</v>
+        <v>18.95348035875512</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.510144232673465</v>
+        <v>10.30494224384155</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.3579203270608</v>
+        <v>18.78830680319042</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.61705202721119</v>
+        <v>23.29212742366401</v>
       </c>
       <c r="C18">
-        <v>17.99922685229799</v>
+        <v>10.33812476246123</v>
       </c>
       <c r="D18">
-        <v>8.703276977399534</v>
+        <v>6.374550195175688</v>
       </c>
       <c r="E18">
-        <v>6.016761704779226</v>
+        <v>10.26151652742318</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>60.62049361159961</v>
+        <v>51.24842971220225</v>
       </c>
       <c r="H18">
-        <v>16.00573837939901</v>
+        <v>18.94249457860249</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.433856164732974</v>
+        <v>10.2967391928397</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.43150053633516</v>
+        <v>18.80564244317361</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.46286042117976</v>
+        <v>23.2461606072259</v>
       </c>
       <c r="C19">
-        <v>17.92005286026293</v>
+        <v>10.30017642929794</v>
       </c>
       <c r="D19">
-        <v>8.661683874953374</v>
+        <v>6.363882076456822</v>
       </c>
       <c r="E19">
-        <v>6.018962135484595</v>
+        <v>10.2633414918667</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>60.3694856947652</v>
+        <v>51.19388921210864</v>
       </c>
       <c r="H19">
-        <v>15.96103295344204</v>
+        <v>18.93885653971903</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.408030618840607</v>
+        <v>10.29399695022937</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.45644445588883</v>
+        <v>18.81154523457421</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.15340384117938</v>
+        <v>23.45271354122393</v>
       </c>
       <c r="C20">
-        <v>18.27467287384501</v>
+        <v>10.46978806236159</v>
       </c>
       <c r="D20">
-        <v>8.847987716999315</v>
+        <v>6.411878035575935</v>
       </c>
       <c r="E20">
-        <v>6.009275346876394</v>
+        <v>10.25520323478026</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>61.4985901512651</v>
+        <v>51.44009134586955</v>
       </c>
       <c r="H20">
-        <v>16.16301686279852</v>
+        <v>18.95555229970158</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.524265503503619</v>
+        <v>10.30647711793095</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.34431671225258</v>
+        <v>18.78511414735666</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.41685508413198</v>
+        <v>24.14070153899809</v>
       </c>
       <c r="C21">
-        <v>19.43780698958549</v>
+        <v>11.01930790015174</v>
       </c>
       <c r="D21">
-        <v>9.459261278212464</v>
+        <v>6.572768705002696</v>
       </c>
       <c r="E21">
-        <v>5.98064316846985</v>
+        <v>10.22915893612781</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>65.28614235183069</v>
+        <v>52.27994076839691</v>
       </c>
       <c r="H21">
-        <v>16.85621545122134</v>
+        <v>19.01730787629317</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.915141250978952</v>
+        <v>10.35083544981963</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.9695841899905</v>
+        <v>18.69861701133201</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.85615588421464</v>
+        <v>24.58505319124288</v>
       </c>
       <c r="C22">
-        <v>20.17807878686013</v>
+        <v>11.3632337786388</v>
       </c>
       <c r="D22">
-        <v>9.848524479402885</v>
+        <v>6.677452468391765</v>
       </c>
       <c r="E22">
-        <v>5.965036475403084</v>
+        <v>10.21310469514596</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>67.76008969865121</v>
+        <v>52.83737388940977</v>
       </c>
       <c r="H22">
-        <v>17.32082235303794</v>
+        <v>19.06186853117067</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.170972299709186</v>
+        <v>10.3816101634206</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.72601020222549</v>
+        <v>18.64380057743704</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.09147789225386</v>
+        <v>24.34842867241522</v>
       </c>
       <c r="C23">
-        <v>19.784718183997</v>
+        <v>11.18106890536639</v>
       </c>
       <c r="D23">
-        <v>9.641656109025941</v>
+        <v>6.621635607438442</v>
       </c>
       <c r="E23">
-        <v>5.973068920402509</v>
+        <v>10.22158471155416</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>66.43958789406989</v>
+        <v>52.53913639737168</v>
       </c>
       <c r="H23">
-        <v>17.07174184624044</v>
+        <v>19.03770274846256</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.034385436009233</v>
+        <v>10.36502353555771</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.85589673726722</v>
+        <v>18.67290061818546</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.11570102628946</v>
+        <v>23.44139106454349</v>
       </c>
       <c r="C24">
-        <v>18.25530831081823</v>
+        <v>10.46055021541295</v>
       </c>
       <c r="D24">
-        <v>8.837813710253906</v>
+        <v>6.409243213223374</v>
       </c>
       <c r="E24">
-        <v>6.009793024360246</v>
+        <v>10.25564525890257</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>61.43661425131991</v>
+        <v>51.42652130119176</v>
       </c>
       <c r="H24">
-        <v>16.15187161516302</v>
+        <v>18.95461411360147</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.517881304600959</v>
+        <v>10.30578257749892</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.35046625930822</v>
+        <v>18.78655692057148</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.72030470982813</v>
+        <v>22.44572724524829</v>
       </c>
       <c r="C25">
-        <v>16.51267402380285</v>
+        <v>9.618391066015537</v>
       </c>
       <c r="D25">
-        <v>7.922416787807175</v>
+        <v>6.179404917834677</v>
       </c>
       <c r="E25">
-        <v>6.061571496498784</v>
+        <v>10.29654462269822</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>56.0168609203163</v>
+        <v>50.26873905238733</v>
       </c>
       <c r="H25">
-        <v>15.20517457926933</v>
+        <v>18.88312931549296</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.961843776583549</v>
+        <v>10.24969494174331</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.89075913651691</v>
+        <v>18.91655076700902</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.70413948077697</v>
+        <v>27.04762314167132</v>
       </c>
       <c r="C2">
-        <v>8.942990563587324</v>
+        <v>15.1427079535236</v>
       </c>
       <c r="D2">
-        <v>6.010979469025904</v>
+        <v>7.202575770821628</v>
       </c>
       <c r="E2">
-        <v>10.33024867335824</v>
+        <v>6.109053255730467</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.4585704163182</v>
+        <v>51.99756559509291</v>
       </c>
       <c r="H2">
-        <v>18.84614408008562</v>
+        <v>14.54419411404416</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.21525176535112</v>
+        <v>7.553638294299992</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.01868609629499</v>
+        <v>12.29593120517438</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.19981760106075</v>
+        <v>25.12340403105222</v>
       </c>
       <c r="C3">
-        <v>8.451239213540052</v>
+        <v>14.15737131078218</v>
       </c>
       <c r="D3">
-        <v>5.898105816394818</v>
+        <v>6.684293964615354</v>
       </c>
       <c r="E3">
-        <v>10.35533621503886</v>
+        <v>6.146601093401707</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.93872331405137</v>
+        <v>49.25766734385233</v>
       </c>
       <c r="H3">
-        <v>18.83083664099944</v>
+        <v>14.11790255064801</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.19624004958483</v>
+        <v>7.278369884525324</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.09193985957641</v>
+        <v>12.57591212497639</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.89057683872107</v>
+        <v>23.93063971338798</v>
       </c>
       <c r="C4">
-        <v>8.132762874485469</v>
+        <v>13.52361898780786</v>
       </c>
       <c r="D4">
-        <v>5.829692564669692</v>
+        <v>6.350508047201271</v>
       </c>
       <c r="E4">
-        <v>10.371850108656</v>
+        <v>6.172168444932132</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>48.63482696125696</v>
+        <v>47.56992965337301</v>
       </c>
       <c r="H4">
-        <v>18.82624201564692</v>
+        <v>13.86669356710037</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.18671794623453</v>
+        <v>7.110367581902374</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.13891830692182</v>
+        <v>12.75074816565725</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.76486293406493</v>
+        <v>23.45068258230571</v>
       </c>
       <c r="C5">
-        <v>7.998870930166772</v>
+        <v>13.25805200709029</v>
       </c>
       <c r="D5">
-        <v>5.802078355662226</v>
+        <v>6.21582077280457</v>
       </c>
       <c r="E5">
-        <v>10.3788590910741</v>
+        <v>6.183200817769176</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>48.51495817835218</v>
+        <v>46.88136110583783</v>
       </c>
       <c r="H5">
-        <v>18.825575891681</v>
+        <v>13.76696017148596</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.18338057971497</v>
+        <v>7.042222719996068</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.15856669350289</v>
+        <v>12.82276957604069</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.74401254690908</v>
+        <v>23.37030290015029</v>
       </c>
       <c r="C6">
-        <v>7.976391680080673</v>
+        <v>13.21351157744165</v>
       </c>
       <c r="D6">
-        <v>5.797510209459879</v>
+        <v>6.195973092930955</v>
       </c>
       <c r="E6">
-        <v>10.38003981369918</v>
+        <v>6.1850692780254</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>48.49529741344617</v>
+        <v>46.76699604877758</v>
       </c>
       <c r="H6">
-        <v>18.82553806395159</v>
+        <v>13.75055839833194</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.18285925735103</v>
+        <v>7.030928489362513</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.16185978878325</v>
+        <v>12.83477655153677</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.88887991761187</v>
+        <v>23.92421273557787</v>
       </c>
       <c r="C7">
-        <v>8.130973730199505</v>
+        <v>13.52006713516083</v>
       </c>
       <c r="D7">
-        <v>5.829319024328815</v>
+        <v>6.348636096906908</v>
       </c>
       <c r="E7">
-        <v>10.37194350239906</v>
+        <v>6.172314770640387</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>48.63319412969016</v>
+        <v>47.56064575813366</v>
       </c>
       <c r="H7">
-        <v>18.82622815135569</v>
+        <v>13.86533786888642</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.1866707365286</v>
+        <v>7.109447181935262</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.13918124846413</v>
+        <v>12.7517162861688</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.53028143070796</v>
+        <v>26.39588649906648</v>
       </c>
       <c r="C8">
-        <v>8.776893045192827</v>
+        <v>14.80887767786268</v>
       </c>
       <c r="D8">
-        <v>5.971899903492547</v>
+        <v>7.027055010863167</v>
       </c>
       <c r="E8">
-        <v>10.33866865300502</v>
+        <v>6.121466645500469</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.27623201435844</v>
+        <v>51.05426066420335</v>
       </c>
       <c r="H8">
-        <v>18.8398681219857</v>
+        <v>14.39501292691988</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.20825140373828</v>
+        <v>7.458549887525775</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.04352960101993</v>
+        <v>12.3918845214784</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.78288537457854</v>
+        <v>30.89008558391915</v>
       </c>
       <c r="C9">
-        <v>9.910715341230295</v>
+        <v>17.11276445228066</v>
       </c>
       <c r="D9">
-        <v>6.256801044148781</v>
+        <v>8.237625515396354</v>
       </c>
       <c r="E9">
-        <v>10.28221078205235</v>
+        <v>6.042608267850039</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>50.65255694349319</v>
+        <v>57.84679527004774</v>
       </c>
       <c r="H9">
-        <v>18.90477979724658</v>
+        <v>15.51831449011613</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.267531765165</v>
+        <v>8.149009179762338</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.87176858742344</v>
+        <v>11.707722519762</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.6892211973355</v>
+        <v>33.93729778851039</v>
       </c>
       <c r="C10">
-        <v>10.66124505360214</v>
+        <v>18.67736211518842</v>
       </c>
       <c r="D10">
-        <v>6.467014322534332</v>
+        <v>9.059576475104555</v>
       </c>
       <c r="E10">
-        <v>10.24607364442369</v>
+        <v>5.998809959578166</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51.72545965843448</v>
+        <v>62.79557874488221</v>
       </c>
       <c r="H10">
-        <v>18.97574275818932</v>
+        <v>16.39776477885068</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.3212541368396</v>
+        <v>8.657967705698493</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.75512849128397</v>
+        <v>11.21575532161057</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.09641265778603</v>
+        <v>35.27256717473961</v>
       </c>
       <c r="C11">
-        <v>10.98458586009791</v>
+        <v>19.36362450499586</v>
       </c>
       <c r="D11">
-        <v>6.562366549564433</v>
+        <v>9.420263744439906</v>
       </c>
       <c r="E11">
-        <v>10.23079017531595</v>
+        <v>5.982321575737705</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.22500343938806</v>
+        <v>65.04087278020371</v>
       </c>
       <c r="H11">
-        <v>19.01306098785128</v>
+        <v>16.81063989164458</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.3478565845428</v>
+        <v>8.889794719037328</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.70412186600608</v>
+        <v>10.99378557912098</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.24971142741044</v>
+        <v>35.77130140696722</v>
       </c>
       <c r="C12">
-        <v>11.10441768893834</v>
+        <v>19.62005967122735</v>
       </c>
       <c r="D12">
-        <v>6.598396939674153</v>
+        <v>9.555078774028274</v>
       </c>
       <c r="E12">
-        <v>10.22516861074876</v>
+        <v>5.97660726424369</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>52.41564921077446</v>
+        <v>65.89079713980045</v>
       </c>
       <c r="H12">
-        <v>19.02791350800817</v>
+        <v>16.96895468831893</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.35823684015091</v>
+        <v>8.977642285926622</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.68510098214932</v>
+        <v>10.90996115805713</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.21673808771013</v>
+        <v>35.66418973118761</v>
       </c>
       <c r="C13">
-        <v>11.07872598057467</v>
+        <v>19.56498064869771</v>
       </c>
       <c r="D13">
-        <v>6.590641178487046</v>
+        <v>9.526120356693879</v>
       </c>
       <c r="E13">
-        <v>10.2263719376311</v>
+        <v>5.977813781399467</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>52.37452717118297</v>
+        <v>65.70775382924664</v>
       </c>
       <c r="H13">
-        <v>19.0246827529416</v>
+        <v>16.9347687732583</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.35598771415822</v>
+        <v>8.958719595642677</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.68918440128353</v>
+        <v>10.92800442551256</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.10904347828717</v>
+        <v>35.31373406401342</v>
       </c>
       <c r="C14">
-        <v>10.99449685756336</v>
+        <v>19.38478904371969</v>
       </c>
       <c r="D14">
-        <v>6.565332553936493</v>
+        <v>9.431389703536546</v>
       </c>
       <c r="E14">
-        <v>10.230324361011</v>
+        <v>5.981840625089195</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>52.24065931611366</v>
+        <v>65.11079905075545</v>
       </c>
       <c r="H14">
-        <v>19.01426848811511</v>
+        <v>16.8236242307795</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.34870446022841</v>
+        <v>8.897020624696079</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.70255111597289</v>
+        <v>10.98688483030211</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.04295615809648</v>
+        <v>35.09818435991516</v>
       </c>
       <c r="C15">
-        <v>10.94256390319393</v>
+        <v>19.27397616956657</v>
       </c>
       <c r="D15">
-        <v>6.549819112788942</v>
+        <v>9.373138216710018</v>
       </c>
       <c r="E15">
-        <v>10.23276694052599</v>
+        <v>5.984377266203456</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>52.15884895448009</v>
+        <v>64.74512536319537</v>
       </c>
       <c r="H15">
-        <v>19.00798321833116</v>
+        <v>16.75580573723754</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.34428302460916</v>
+        <v>8.859236849266845</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.71077689894366</v>
+        <v>11.02297997989571</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.66249346656945</v>
+        <v>33.84904453200037</v>
       </c>
       <c r="C16">
-        <v>10.639749176038</v>
+        <v>18.63201906749159</v>
       </c>
       <c r="D16">
-        <v>6.460774018835039</v>
+        <v>9.035749552476492</v>
       </c>
       <c r="E16">
-        <v>10.24709568888182</v>
+        <v>5.99995957724062</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>51.69302965320028</v>
+        <v>62.64876421941333</v>
       </c>
       <c r="H16">
-        <v>18.97340501151761</v>
+        <v>16.37105000557068</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.31955875669456</v>
+        <v>8.642824245402394</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.75850312395312</v>
+        <v>11.23029546299345</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.4276657122423</v>
+        <v>33.06997429977742</v>
       </c>
       <c r="C17">
-        <v>10.44934280749293</v>
+        <v>18.2318230109915</v>
       </c>
       <c r="D17">
-        <v>6.40604981690818</v>
+        <v>8.825474797746576</v>
       </c>
       <c r="E17">
-        <v>10.25618171366792</v>
+        <v>6.010422622351453</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>51.41008279786979</v>
+        <v>61.36149910111104</v>
       </c>
       <c r="H17">
-        <v>18.95348035875512</v>
+        <v>16.13837249117244</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.30494224384155</v>
+        <v>8.510144232673447</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.78830680319042</v>
+        <v>11.35792032706086</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.29212742366401</v>
+        <v>32.61705202721124</v>
       </c>
       <c r="C18">
-        <v>10.33812476246123</v>
+        <v>17.99922685229798</v>
       </c>
       <c r="D18">
-        <v>6.374550195175688</v>
+        <v>8.703276977399547</v>
       </c>
       <c r="E18">
-        <v>10.26151652742318</v>
+        <v>6.016761704779118</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>51.24842971220225</v>
+        <v>60.62049361159963</v>
       </c>
       <c r="H18">
-        <v>18.94249457860249</v>
+        <v>16.005738379399</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.2967391928397</v>
+        <v>8.433856164732937</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.80564244317361</v>
+        <v>11.43150053633513</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.2461606072259</v>
+        <v>32.46286042117983</v>
       </c>
       <c r="C19">
-        <v>10.30017642929794</v>
+        <v>17.92005286026302</v>
       </c>
       <c r="D19">
-        <v>6.363882076456822</v>
+        <v>8.661683874953399</v>
       </c>
       <c r="E19">
-        <v>10.2633414918667</v>
+        <v>6.018962135484482</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51.19388921210864</v>
+        <v>60.36948569476527</v>
       </c>
       <c r="H19">
-        <v>18.93885653971903</v>
+        <v>15.96103295344198</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.29399695022937</v>
+        <v>8.408030618840582</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.81154523457421</v>
+        <v>11.45644445588877</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.45271354122393</v>
+        <v>33.1534038411794</v>
       </c>
       <c r="C20">
-        <v>10.46978806236159</v>
+        <v>18.27467287384496</v>
       </c>
       <c r="D20">
-        <v>6.411878035575935</v>
+        <v>8.847987716999297</v>
       </c>
       <c r="E20">
-        <v>10.25520323478026</v>
+        <v>6.009275346876398</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.44009134586955</v>
+        <v>61.49859015126498</v>
       </c>
       <c r="H20">
-        <v>18.95555229970158</v>
+        <v>16.16301686279849</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.30647711793095</v>
+        <v>8.524265503503644</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.78511414735666</v>
+        <v>11.34431671225244</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.14070153899809</v>
+        <v>35.41685508413205</v>
       </c>
       <c r="C21">
-        <v>11.01930790015174</v>
+        <v>19.43780698958562</v>
       </c>
       <c r="D21">
-        <v>6.572768705002696</v>
+        <v>9.45926127821236</v>
       </c>
       <c r="E21">
-        <v>10.22915893612781</v>
+        <v>5.980643168469897</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>52.27994076839691</v>
+        <v>65.28614235183083</v>
       </c>
       <c r="H21">
-        <v>19.01730787629317</v>
+        <v>16.85621545122133</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.35083544981963</v>
+        <v>8.915141250978948</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.69861701133201</v>
+        <v>10.96958418999044</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.58505319124288</v>
+        <v>36.85615588421475</v>
       </c>
       <c r="C22">
-        <v>11.3632337786388</v>
+        <v>20.17807878686022</v>
       </c>
       <c r="D22">
-        <v>6.677452468391765</v>
+        <v>9.848524479402917</v>
       </c>
       <c r="E22">
-        <v>10.21310469514596</v>
+        <v>5.965036475403141</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>52.83737388940977</v>
+        <v>67.7600896986514</v>
       </c>
       <c r="H22">
-        <v>19.06186853117067</v>
+        <v>17.32082235303792</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.3816101634206</v>
+        <v>9.170972299709188</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.64380057743704</v>
+        <v>10.72601020222544</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.34842867241522</v>
+        <v>36.09147789225409</v>
       </c>
       <c r="C23">
-        <v>11.18106890536639</v>
+        <v>19.78471818399714</v>
       </c>
       <c r="D23">
-        <v>6.621635607438442</v>
+        <v>9.641656109026</v>
       </c>
       <c r="E23">
-        <v>10.22158471155416</v>
+        <v>5.973068920402458</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>52.53913639737168</v>
+        <v>66.43958789407029</v>
       </c>
       <c r="H23">
-        <v>19.03770274846256</v>
+        <v>17.07174184624046</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.36502353555771</v>
+        <v>9.034385436009231</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.67290061818546</v>
+        <v>10.85589673726713</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.44139106454349</v>
+        <v>33.11570102628946</v>
       </c>
       <c r="C24">
-        <v>10.46055021541295</v>
+        <v>18.25530831081828</v>
       </c>
       <c r="D24">
-        <v>6.409243213223374</v>
+        <v>8.837813710253837</v>
       </c>
       <c r="E24">
-        <v>10.25564525890257</v>
+        <v>6.009793024360234</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.42652130119176</v>
+        <v>61.43661425131993</v>
       </c>
       <c r="H24">
-        <v>18.95461411360147</v>
+        <v>16.15187161516304</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.30578257749892</v>
+        <v>8.517881304600957</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.78655692057148</v>
+        <v>11.35046625930822</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.44572724524829</v>
+        <v>29.72030470982811</v>
       </c>
       <c r="C25">
-        <v>9.618391066015537</v>
+        <v>16.5126740238028</v>
       </c>
       <c r="D25">
-        <v>6.179404917834677</v>
+        <v>7.92241678780719</v>
       </c>
       <c r="E25">
-        <v>10.29654462269822</v>
+        <v>6.061571496498794</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.26873905238733</v>
+        <v>56.01686092031623</v>
       </c>
       <c r="H25">
-        <v>18.88312931549296</v>
+        <v>15.20517457926933</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.24969494174331</v>
+        <v>7.961843776583552</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.91655076700902</v>
+        <v>11.890759136517</v>
       </c>
       <c r="O25">
         <v>0</v>
